--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.2486415917946</v>
+        <v>367.7501920868085</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.2290050845812</v>
+        <v>503.1720368066153</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.9734649502117</v>
+        <v>455.1500038201803</v>
       </c>
       <c r="AD2" t="n">
-        <v>331248.6415917946</v>
+        <v>367750.1920868085</v>
       </c>
       <c r="AE2" t="n">
-        <v>453229.0050845812</v>
+        <v>503172.0368066153</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451138480191426e-06</v>
+        <v>4.535247931776442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.199544270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>409973.4649502118</v>
+        <v>455150.0038201803</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.5734861908533</v>
+        <v>198.8794360721888</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.8591454448733</v>
+        <v>272.1156183753292</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.0627638445999</v>
+        <v>246.1452856743365</v>
       </c>
       <c r="AD3" t="n">
-        <v>174573.4861908533</v>
+        <v>198879.4360721888</v>
       </c>
       <c r="AE3" t="n">
-        <v>238859.1454448733</v>
+        <v>272115.6183753292</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.775162202721978e-06</v>
+        <v>6.985038466973246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.025065104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216062.7638445999</v>
+        <v>246145.2856743365</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.9536189722499</v>
+        <v>162.3448201996059</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.7542275618836</v>
+        <v>222.1273451449887</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.7397890016529</v>
+        <v>200.9278230821018</v>
       </c>
       <c r="AD4" t="n">
-        <v>137953.6189722499</v>
+        <v>162344.8201996059</v>
       </c>
       <c r="AE4" t="n">
-        <v>188754.2275618836</v>
+        <v>222127.3451449887</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.275790874903688e-06</v>
+        <v>7.911332582319502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>170739.7890016529</v>
+        <v>200927.8230821018</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.8990698994115</v>
+        <v>149.1196789261753</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.8924175943769</v>
+        <v>204.0321234026351</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.5826851082315</v>
+        <v>184.5595839060294</v>
       </c>
       <c r="AD5" t="n">
-        <v>124899.0698994115</v>
+        <v>149119.6789261753</v>
       </c>
       <c r="AE5" t="n">
-        <v>170892.4175943769</v>
+        <v>204032.1234026351</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.571387737292217e-06</v>
+        <v>8.458264169262109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.323567708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>154582.6851082315</v>
+        <v>184559.5839060294</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.23488533856</v>
+        <v>130.430575460789</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.7741862751512</v>
+        <v>178.4608675362522</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.3346849885918</v>
+        <v>161.4288128100429</v>
       </c>
       <c r="AD6" t="n">
-        <v>118234.88533856</v>
+        <v>130430.575460789</v>
       </c>
       <c r="AE6" t="n">
-        <v>161774.1862751512</v>
+        <v>178460.8675362522</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.693230411144721e-06</v>
+        <v>8.68370501605936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.2373046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>146334.6849885918</v>
+        <v>161428.8128100429</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.334385575613</v>
+        <v>129.5300756978421</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.5420827722421</v>
+        <v>177.228764033343</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.2201717147318</v>
+        <v>160.3142995361828</v>
       </c>
       <c r="AD7" t="n">
-        <v>117334.385575613</v>
+        <v>129530.075697842</v>
       </c>
       <c r="AE7" t="n">
-        <v>160542.0827722421</v>
+        <v>177228.764033343</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.710876591495774e-06</v>
+        <v>8.716355069733445e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.225911458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>145220.1717147318</v>
+        <v>160314.2995361828</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.5538579613827</v>
+        <v>260.0813717353711</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.6634244822886</v>
+        <v>355.854806788664</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.7734415142644</v>
+        <v>321.8925234741113</v>
       </c>
       <c r="AD2" t="n">
-        <v>236553.8579613827</v>
+        <v>260081.3717353712</v>
       </c>
       <c r="AE2" t="n">
-        <v>323663.4244822887</v>
+        <v>355854.806788664</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.009905014787684e-06</v>
+        <v>5.737343484045896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.222981770833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>292773.4415142644</v>
+        <v>321892.5234741113</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.088305794769</v>
+        <v>158.6157300602031</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.8337796637603</v>
+        <v>217.0250395004144</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.193503148542</v>
+        <v>196.3124743271131</v>
       </c>
       <c r="AD3" t="n">
-        <v>135088.305794769</v>
+        <v>158615.7300602031</v>
       </c>
       <c r="AE3" t="n">
-        <v>184833.7796637603</v>
+        <v>217025.0395004144</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230460470676782e-06</v>
+        <v>8.06391055422168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7158203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>167193.503148542</v>
+        <v>196312.474327113</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.8119904364748</v>
+        <v>139.1688225013168</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.4590745795408</v>
+        <v>190.4169226413481</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.335962900421</v>
+        <v>172.243798796341</v>
       </c>
       <c r="AD4" t="n">
-        <v>115811.9904364748</v>
+        <v>139168.8225013168</v>
       </c>
       <c r="AE4" t="n">
-        <v>158459.0745795408</v>
+        <v>190416.9226413481</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.71416243499526e-06</v>
+        <v>8.985921149097071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.3349609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>143335.962900421</v>
+        <v>172243.798796341</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.3014976392589</v>
+        <v>121.065299280527</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.5511311117235</v>
+        <v>165.6468834995989</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.2781810547921</v>
+        <v>149.8377774253042</v>
       </c>
       <c r="AD5" t="n">
-        <v>109301.4976392589</v>
+        <v>121065.299280527</v>
       </c>
       <c r="AE5" t="n">
-        <v>149551.1311117235</v>
+        <v>165646.8834995989</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.853052895196932e-06</v>
+        <v>9.250667801539329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.238932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>135278.1810547921</v>
+        <v>149837.7774253042</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.6707244518071</v>
+        <v>121.4345260930752</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.056323525789</v>
+        <v>166.1520759136644</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.7351586139013</v>
+        <v>150.2947549844135</v>
       </c>
       <c r="AD6" t="n">
-        <v>109670.7244518071</v>
+        <v>121434.5260930752</v>
       </c>
       <c r="AE6" t="n">
-        <v>150056.323525789</v>
+        <v>166152.0759136644</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.851893864930992e-06</v>
+        <v>9.248458510976527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.240559895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>135735.1586139013</v>
+        <v>150294.7549844134</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.05260604991517</v>
+        <v>118.9794910322967</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.1599013731189</v>
+        <v>162.792988635006</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3558686807084</v>
+        <v>147.2562542811205</v>
       </c>
       <c r="AD2" t="n">
-        <v>98052.60604991516</v>
+        <v>118979.4910322967</v>
       </c>
       <c r="AE2" t="n">
-        <v>134159.9013731189</v>
+        <v>162792.988635006</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857776124252037e-06</v>
+        <v>1.03457918503911e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.611653645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>121355.8686807084</v>
+        <v>147256.2542811205</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.49610698509578</v>
+        <v>112.252399766885</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.1890101003131</v>
+        <v>153.5886855873534</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.2411466802514</v>
+        <v>138.9303969980125</v>
       </c>
       <c r="AD3" t="n">
-        <v>91496.10698509577</v>
+        <v>112252.399766885</v>
       </c>
       <c r="AE3" t="n">
-        <v>125189.0101003131</v>
+        <v>153588.6855873534</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.113420189806268e-06</v>
+        <v>1.089024680721953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.430989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>113241.1466802514</v>
+        <v>138930.3969980125</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8390594358671</v>
+        <v>163.6974001822469</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0704586177375</v>
+        <v>223.9780047488546</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5486464269148</v>
+        <v>202.6018583307923</v>
       </c>
       <c r="AD2" t="n">
-        <v>141839.0594358671</v>
+        <v>163697.4001822469</v>
       </c>
       <c r="AE2" t="n">
-        <v>194070.4586177375</v>
+        <v>223978.0047488546</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.092365743743077e-06</v>
+        <v>8.308917320209583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.099934895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175548.6464269148</v>
+        <v>202601.8583307923</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.47193550010378</v>
+        <v>119.244935391912</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.3654023094906</v>
+        <v>163.1561813184102</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.6371954926262</v>
+        <v>147.5847843645648</v>
       </c>
       <c r="AD3" t="n">
-        <v>97471.93550010378</v>
+        <v>119244.935391912</v>
       </c>
       <c r="AE3" t="n">
-        <v>133365.4023094906</v>
+        <v>163156.1813184102</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059393490853664e-06</v>
+        <v>1.027231797895453e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.317057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>120637.1954926262</v>
+        <v>147584.7843645648</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.45520371066738</v>
+        <v>119.2282036024756</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.3425091370293</v>
+        <v>163.1332881459489</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.6164872124138</v>
+        <v>147.5640760843525</v>
       </c>
       <c r="AD4" t="n">
-        <v>97455.20371066738</v>
+        <v>119228.2036024756</v>
       </c>
       <c r="AE4" t="n">
-        <v>133342.5091370293</v>
+        <v>163133.2881459489</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.073828279700607e-06</v>
+        <v>1.030162559087737e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>120616.4872124138</v>
+        <v>147564.0760843524</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.92323590903699</v>
+        <v>107.0162125030237</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.9322061532189</v>
+        <v>146.4243031686633</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.5814833203864</v>
+        <v>132.449773182086</v>
       </c>
       <c r="AD2" t="n">
-        <v>86923.23590903699</v>
+        <v>107016.2125030237</v>
       </c>
       <c r="AE2" t="n">
-        <v>118932.2061532189</v>
+        <v>146424.3031686633</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072633124204402e-06</v>
+        <v>1.129576316040236e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.592122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>107581.4833203864</v>
+        <v>132449.773182086</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.5879182250037</v>
+        <v>290.0490170071902</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.3384213415502</v>
+        <v>396.8578611287685</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.0934913048615</v>
+        <v>358.9823038561444</v>
       </c>
       <c r="AD2" t="n">
-        <v>254587.9182250037</v>
+        <v>290049.0170071902</v>
       </c>
       <c r="AE2" t="n">
-        <v>348338.4213415502</v>
+        <v>396857.8611287685</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.860347917442482e-06</v>
+        <v>5.408241921921214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.445963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>315093.4913048615</v>
+        <v>358982.3038561444</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.470064548781</v>
+        <v>165.2245252039643</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.565583534321</v>
+        <v>226.0674845755685</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.0919559128629</v>
+        <v>204.4919211354487</v>
       </c>
       <c r="AD3" t="n">
-        <v>141470.064548781</v>
+        <v>165224.5252039643</v>
       </c>
       <c r="AE3" t="n">
-        <v>193565.583534321</v>
+        <v>226067.4845755685</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.113012415503914e-06</v>
+        <v>7.776734443829421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.787434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175091.9559128629</v>
+        <v>204491.9211354487</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.4740623751876</v>
+        <v>145.0579308297788</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.2061711990683</v>
+        <v>198.4746604654689</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.3436874917016</v>
+        <v>179.5325174316363</v>
       </c>
       <c r="AD4" t="n">
-        <v>121474.0623751876</v>
+        <v>145057.9308297788</v>
       </c>
       <c r="AE4" t="n">
-        <v>166206.1711990683</v>
+        <v>198474.6604654689</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.593900811489291e-06</v>
+        <v>8.685980751620881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>150343.6874917016</v>
+        <v>179532.5174316363</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.9039478598694</v>
+        <v>123.7812676960122</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.1119183155617</v>
+        <v>169.3629913057338</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.4991317254934</v>
+        <v>153.1992251180128</v>
       </c>
       <c r="AD5" t="n">
-        <v>111903.9478598694</v>
+        <v>123781.2676960122</v>
       </c>
       <c r="AE5" t="n">
-        <v>153111.9183155617</v>
+        <v>169362.9913057338</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804959512354689e-06</v>
+        <v>9.085042875163906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>138499.1317254934</v>
+        <v>153199.2251180128</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.426201181945</v>
+        <v>123.3035210180877</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.4582442341298</v>
+        <v>168.709317224302</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.9078433809558</v>
+        <v>152.6079367734753</v>
       </c>
       <c r="AD6" t="n">
-        <v>111426.201181945</v>
+        <v>123303.5210180877</v>
       </c>
       <c r="AE6" t="n">
-        <v>152458.2442341298</v>
+        <v>168709.317224302</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.824677468081796e-06</v>
+        <v>9.122324869472234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>137907.8433809558</v>
+        <v>152607.9367734753</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.26233120978263</v>
+        <v>104.8615091793799</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6596830697563</v>
+        <v>143.4761430224536</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5258466505026</v>
+        <v>129.7829813024609</v>
       </c>
       <c r="AD2" t="n">
-        <v>85262.33120978263</v>
+        <v>104861.5091793799</v>
       </c>
       <c r="AE2" t="n">
-        <v>116659.6830697563</v>
+        <v>143476.1430224536</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.970156248067696e-06</v>
+        <v>1.139441494760056e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.751627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105525.8466505026</v>
+        <v>129782.9813024609</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.2532365070896</v>
+        <v>213.3537676524884</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.2621862835575</v>
+        <v>291.9200374059271</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.8547074523663</v>
+        <v>264.0595987483372</v>
       </c>
       <c r="AD2" t="n">
-        <v>179253.2365070895</v>
+        <v>213353.7676524884</v>
       </c>
       <c r="AE2" t="n">
-        <v>245262.1862835575</v>
+        <v>291920.0374059271</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.502273207211648e-06</v>
+        <v>6.864407084949623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6240234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>221854.7074523663</v>
+        <v>264059.5987483372</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.361268235448</v>
+        <v>137.9812573681695</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.8423765796361</v>
+        <v>188.7920436345008</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.7781216920859</v>
+        <v>170.7739959613746</v>
       </c>
       <c r="AD3" t="n">
-        <v>115361.268235448</v>
+        <v>137981.2573681695</v>
       </c>
       <c r="AE3" t="n">
-        <v>157842.3765796361</v>
+        <v>188792.0436345008</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640208483806101e-06</v>
+        <v>9.094744500884126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.4912109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>142778.1216920859</v>
+        <v>170773.9959613746</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.7308236702142</v>
+        <v>114.1262038454221</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.560845109604</v>
+        <v>156.1525069940081</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.1459153307664</v>
+        <v>141.2495308879629</v>
       </c>
       <c r="AD4" t="n">
-        <v>102730.8236702142</v>
+        <v>114126.2038454221</v>
       </c>
       <c r="AE4" t="n">
-        <v>140560.845109604</v>
+        <v>156152.5069940081</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>9.795150417860147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.240559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>127145.9153307664</v>
+        <v>141249.5308879629</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.0830013950771</v>
+        <v>114.478381570285</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.0427102097459</v>
+        <v>156.63437209415</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.5817919020528</v>
+        <v>141.6854074592493</v>
       </c>
       <c r="AD5" t="n">
-        <v>103083.0013950771</v>
+        <v>114478.381570285</v>
       </c>
       <c r="AE5" t="n">
-        <v>141042.7102097459</v>
+        <v>156634.37209415</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>9.795150417860147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.240559895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>127581.7919020528</v>
+        <v>141685.4074592493</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7277342108024</v>
+        <v>244.0195782513623</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.0094237674521</v>
+        <v>333.8783523473675</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.1860682360641</v>
+        <v>302.0134710006446</v>
       </c>
       <c r="AD2" t="n">
-        <v>220727.7342108024</v>
+        <v>244019.5782513623</v>
       </c>
       <c r="AE2" t="n">
-        <v>302009.4237674521</v>
+        <v>333878.3523473674</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159105859003664e-06</v>
+        <v>6.074022569062903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.022786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>273186.0682360641</v>
+        <v>302013.4710006447</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5641565179577</v>
+        <v>150.8559110499665</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5389066811934</v>
+        <v>206.4077127915603</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.881158394483</v>
+        <v>186.708450377837</v>
       </c>
       <c r="AD3" t="n">
-        <v>127564.1565179577</v>
+        <v>150855.9110499665</v>
       </c>
       <c r="AE3" t="n">
-        <v>174538.9066811934</v>
+        <v>206407.7127915603</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381991836893292e-06</v>
+        <v>8.425269206753857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.621419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>157881.158394483</v>
+        <v>186708.450377837</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.5314077393761</v>
+        <v>121.1773745139316</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.8657042536214</v>
+        <v>165.8002297783532</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.5627317775335</v>
+        <v>149.9764885504371</v>
       </c>
       <c r="AD4" t="n">
-        <v>109531.4077393761</v>
+        <v>121177.3745139316</v>
       </c>
       <c r="AE4" t="n">
-        <v>149865.7042536214</v>
+        <v>165800.2297783532</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.855662709209335e-06</v>
+        <v>9.335997652448536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>135562.7317775335</v>
+        <v>149976.4885504371</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.2192011550885</v>
+        <v>118.8651679296439</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.7020411976454</v>
+        <v>162.6365667223773</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.7010042833899</v>
+        <v>147.1147610562935</v>
       </c>
       <c r="AD5" t="n">
-        <v>107219.2011550884</v>
+        <v>118865.1679296439</v>
       </c>
       <c r="AE5" t="n">
-        <v>146702.0411976454</v>
+        <v>162636.5667223773</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.899539179473275e-06</v>
+        <v>9.420359077018853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.238932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>132701.0042833899</v>
+        <v>147114.7610562935</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0311200439522</v>
+        <v>331.3096863620609</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.6745942985399</v>
+        <v>453.3125292323647</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.148457579538</v>
+        <v>410.0490176705576</v>
       </c>
       <c r="AD2" t="n">
-        <v>295031.1200439523</v>
+        <v>331309.6863620608</v>
       </c>
       <c r="AE2" t="n">
-        <v>403674.5942985399</v>
+        <v>453312.5292323647</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584514866801836e-06</v>
+        <v>4.814755170640789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.926106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>365148.457579538</v>
+        <v>410049.0176705577</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.2168446246548</v>
+        <v>179.4025555033935</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.3745344992569</v>
+        <v>245.4664911217897</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.1058069962397</v>
+        <v>222.0395137235814</v>
       </c>
       <c r="AD3" t="n">
-        <v>155216.8446246548</v>
+        <v>179402.5555033935</v>
       </c>
       <c r="AE3" t="n">
-        <v>212374.5344992569</v>
+        <v>245466.4911217897</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883454280959543e-06</v>
+        <v>7.234580779306733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.943684895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>192105.8069962398</v>
+        <v>222039.5137235814</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.0020880989255</v>
+        <v>157.1877989776642</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9793245748796</v>
+        <v>215.0712811974124</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6114732470903</v>
+        <v>194.5451799744319</v>
       </c>
       <c r="AD4" t="n">
-        <v>133002.0880989255</v>
+        <v>157187.7989776642</v>
       </c>
       <c r="AE4" t="n">
-        <v>181979.3245748796</v>
+        <v>215071.2811974124</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363051096967924e-06</v>
+        <v>8.128033271826779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5107421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>164611.4732470903</v>
+        <v>194545.1799744319</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.0626037704541</v>
+        <v>147.0777224486007</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.3796836175711</v>
+        <v>201.238228465257</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.309762935527</v>
+        <v>182.0323343802176</v>
       </c>
       <c r="AD5" t="n">
-        <v>123062.6037704542</v>
+        <v>147077.7224486007</v>
       </c>
       <c r="AE5" t="n">
-        <v>168379.6836175711</v>
+        <v>201238.228465257</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.58393291156205e-06</v>
+        <v>8.53951933931982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.341471354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>152309.762935527</v>
+        <v>182032.3343802176</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.123877231161</v>
+        <v>127.2168221790814</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.5175677346189</v>
+        <v>174.0636685154337</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.4843121473649</v>
+        <v>157.4512762922623</v>
       </c>
       <c r="AD6" t="n">
-        <v>115123.877231161</v>
+        <v>127216.8221790814</v>
       </c>
       <c r="AE6" t="n">
-        <v>157517.5677346189</v>
+        <v>174063.6685154337</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.748911957571213e-06</v>
+        <v>8.846862788964178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.225911458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>142484.3121473649</v>
+        <v>157451.2762922623</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.4844374925843</v>
+        <v>127.5773824405048</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.0109021910941</v>
+        <v>174.5570029719089</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.9305634557136</v>
+        <v>157.8975276006109</v>
       </c>
       <c r="AD7" t="n">
-        <v>115484.4374925843</v>
+        <v>127577.3824405048</v>
       </c>
       <c r="AE7" t="n">
-        <v>158010.9021910942</v>
+        <v>174557.0029719089</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746935597065684e-06</v>
+        <v>8.843180979242253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.2275390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>142930.5634557136</v>
+        <v>157897.5276006109</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.4876562049062</v>
+        <v>175.6433718371034</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.0085826169491</v>
+        <v>240.3230101860955</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.9656582409443</v>
+        <v>217.3869193894673</v>
       </c>
       <c r="AD2" t="n">
-        <v>153487.6562049062</v>
+        <v>175643.3718371034</v>
       </c>
       <c r="AE2" t="n">
-        <v>210008.5826169491</v>
+        <v>240323.0101860955</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.884658137995079e-06</v>
+        <v>7.78678696255191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.265950520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189965.6582409443</v>
+        <v>217386.9193894673</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0074237874605</v>
+        <v>124.0777985650861</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.5710574758705</v>
+        <v>169.7687179228193</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.2505916396204</v>
+        <v>153.5662297562046</v>
       </c>
       <c r="AD3" t="n">
-        <v>102007.4237874605</v>
+        <v>124077.7985650861</v>
       </c>
       <c r="AE3" t="n">
-        <v>139571.0574758705</v>
+        <v>169768.7179228193</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.961659600062278e-06</v>
+        <v>9.94563354455836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>126250.5916396204</v>
+        <v>153566.2297562046</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.50360510121708</v>
+        <v>110.624178098877</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.1452222886694</v>
+        <v>151.3608808691156</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.1517133544948</v>
+        <v>136.915210835339</v>
       </c>
       <c r="AD4" t="n">
-        <v>99503.60510121708</v>
+        <v>110624.178098877</v>
       </c>
       <c r="AE4" t="n">
-        <v>136145.2222886694</v>
+        <v>151360.8808691156</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.040973661222266e-06</v>
+        <v>1.010461837036504e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>123151.7133544948</v>
+        <v>136915.210835339</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8952762380689</v>
+        <v>130.1857742518127</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9953210693921</v>
+        <v>178.1259197222637</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7754167428164</v>
+        <v>161.1258319453192</v>
       </c>
       <c r="AD2" t="n">
-        <v>108895.2762380689</v>
+        <v>130185.7742518127</v>
       </c>
       <c r="AE2" t="n">
-        <v>148995.3210693921</v>
+        <v>178125.9197222638</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.570557235640514e-06</v>
+        <v>9.561891570088711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134775.4167428164</v>
+        <v>161125.8319453192</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.51421969861514</v>
+        <v>114.6341255117667</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.9502809477982</v>
+        <v>156.847467825823</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.7388857135214</v>
+        <v>141.8781656333732</v>
       </c>
       <c r="AD3" t="n">
-        <v>93514.21969861514</v>
+        <v>114634.1255117667</v>
       </c>
       <c r="AE3" t="n">
-        <v>127950.2809477982</v>
+        <v>156847.467825823</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105300235573209e-06</v>
+        <v>1.068060736766122e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.380533854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>115738.8857135214</v>
+        <v>141878.1656333732</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.57498575489694</v>
+        <v>110.1057561606847</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.5604472792694</v>
+        <v>150.6515531021194</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8634502056361</v>
+        <v>136.273580314877</v>
       </c>
       <c r="AD2" t="n">
-        <v>89574.98575489694</v>
+        <v>110105.7561606847</v>
       </c>
       <c r="AE2" t="n">
-        <v>122560.4472792694</v>
+        <v>150651.5531021194</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.089202350034515e-06</v>
+        <v>1.106319189259144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.509114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110863.4502056361</v>
+        <v>136273.580314877</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.5949509953071</v>
+        <v>109.9551292005026</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.5877646020028</v>
+        <v>150.445458650006</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.888160401428</v>
+        <v>136.0871552280178</v>
       </c>
       <c r="AD3" t="n">
-        <v>89594.9509953071</v>
+        <v>109955.1292005026</v>
       </c>
       <c r="AE3" t="n">
-        <v>122587.7646020028</v>
+        <v>150445.458650006</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104671717127771e-06</v>
+        <v>1.109682006550314e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.497721354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110888.160401428</v>
+        <v>136087.1552280178</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.6421344502369</v>
+        <v>112.5816377862972</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.1252995541676</v>
+        <v>154.0391635704692</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8972007897391</v>
+        <v>139.3378819946697</v>
       </c>
       <c r="AD2" t="n">
-        <v>93642.13445023689</v>
+        <v>112581.6377862972</v>
       </c>
       <c r="AE2" t="n">
-        <v>128125.2995541675</v>
+        <v>154039.1635704692</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.746438479904215e-06</v>
+        <v>1.128953190515561e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0380859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>115897.2007897391</v>
+        <v>139337.8819946697</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.1271566177959</v>
+        <v>227.6115846666846</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.2450958531737</v>
+        <v>311.4282116552338</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.0259147753453</v>
+        <v>281.7059402271908</v>
       </c>
       <c r="AD2" t="n">
-        <v>193127.1566177959</v>
+        <v>227611.5846666846</v>
       </c>
       <c r="AE2" t="n">
-        <v>264245.0958531736</v>
+        <v>311428.2116552338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.331267450578685e-06</v>
+        <v>6.464584976267493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>239025.9147753453</v>
+        <v>281705.9402271907</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.4280053632198</v>
+        <v>144.4745179655266</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.1431539634019</v>
+        <v>197.6764092462403</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.2866845325619</v>
+        <v>178.8104501884181</v>
       </c>
       <c r="AD3" t="n">
-        <v>121428.0053632198</v>
+        <v>144474.5179655266</v>
       </c>
       <c r="AE3" t="n">
-        <v>166143.1539634019</v>
+        <v>197676.4092462403</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.509146425876416e-06</v>
+        <v>8.750351232065514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>150286.6845325619</v>
+        <v>178810.4501884181</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1737380943684</v>
+        <v>115.6970839040729</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.5351042816225</v>
+        <v>158.3018543925901</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.9317539782982</v>
+        <v>143.1937475874529</v>
       </c>
       <c r="AD4" t="n">
-        <v>104173.7380943684</v>
+        <v>115697.0839040729</v>
       </c>
       <c r="AE4" t="n">
-        <v>142535.1042816225</v>
+        <v>158301.8543925901</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.986462653053751e-06</v>
+        <v>9.676620694639966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.214518229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>128931.7539782982</v>
+        <v>143193.7475874529</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.5267572469743</v>
+        <v>115.0501030566788</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.6498765434378</v>
+        <v>157.4166266544054</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.1310111330206</v>
+        <v>142.3930047421753</v>
       </c>
       <c r="AD5" t="n">
-        <v>103526.7572469743</v>
+        <v>115050.1030566788</v>
       </c>
       <c r="AE5" t="n">
-        <v>141649.8765434378</v>
+        <v>157416.6266544054</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.010097044331358e-06</v>
+        <v>9.722485079005114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.199869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>128131.0111330207</v>
+        <v>142393.0047421753</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.596017638984</v>
+        <v>309.5565097513575</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.346141538085</v>
+        <v>423.5488733111791</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.6190711877988</v>
+        <v>383.1259632969367</v>
       </c>
       <c r="AD2" t="n">
-        <v>273596.017638984</v>
+        <v>309556.5097513574</v>
       </c>
       <c r="AE2" t="n">
-        <v>374346.141538085</v>
+        <v>423548.8733111791</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721594756777748e-06</v>
+        <v>5.106779252769764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.675455729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>338619.0711877988</v>
+        <v>383125.9632969367</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.2159265257956</v>
+        <v>172.1895879340442</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.7955694976942</v>
+        <v>235.5973906797401</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.4410449702613</v>
+        <v>213.1123063763484</v>
       </c>
       <c r="AD3" t="n">
-        <v>148215.9265257956</v>
+        <v>172189.5879340442</v>
       </c>
       <c r="AE3" t="n">
-        <v>202795.5694976942</v>
+        <v>235597.3906797401</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997366022820984e-06</v>
+        <v>7.500626542666439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.863932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>183441.0449702613</v>
+        <v>213112.3063763484</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.2259290792002</v>
+        <v>151.0289982868566</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.0761289779442</v>
+        <v>206.6445383851433</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.4625475457192</v>
+        <v>186.9226736691552</v>
       </c>
       <c r="AD4" t="n">
-        <v>127225.9290792002</v>
+        <v>151028.9982868566</v>
       </c>
       <c r="AE4" t="n">
-        <v>174076.1289779442</v>
+        <v>206644.5383851433</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.475448114335848e-06</v>
+        <v>8.397696064125786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157462.5475457192</v>
+        <v>186922.6736691553</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.076875117572</v>
+        <v>129.0637953302474</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.1897456029909</v>
+        <v>176.5907786635623</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.9014611104056</v>
+        <v>159.7372025946756</v>
       </c>
       <c r="AD5" t="n">
-        <v>117076.875117572</v>
+        <v>129063.7953302473</v>
       </c>
       <c r="AE5" t="n">
-        <v>160189.7456029909</v>
+        <v>176590.7786635623</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.699970192248545e-06</v>
+        <v>8.818987546414953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.2861328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>144901.4611104056</v>
+        <v>159737.2025946756</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.9562733316475</v>
+        <v>124.9431935443229</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.551756451371</v>
+        <v>170.9527895119424</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.801553730447</v>
+        <v>154.6372952147171</v>
       </c>
       <c r="AD6" t="n">
-        <v>112956.2733316475</v>
+        <v>124943.1935443229</v>
       </c>
       <c r="AE6" t="n">
-        <v>154551.756451371</v>
+        <v>170952.7895119424</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.793726664343957e-06</v>
+        <v>8.994911462096142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>139801.553730447</v>
+        <v>154637.2952147171</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.85429731969514</v>
+        <v>120.2495353548233</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.0473460352397</v>
+        <v>164.5307193074872</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.92212564174</v>
+        <v>148.828138377141</v>
       </c>
       <c r="AD2" t="n">
-        <v>92854.29731969514</v>
+        <v>120249.5353548233</v>
       </c>
       <c r="AE2" t="n">
-        <v>127047.3460352397</v>
+        <v>164530.7193074872</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.26796158009296e-06</v>
+        <v>1.067384801820701e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.650065104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114922.12564174</v>
+        <v>148828.138377141</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.7313267683894</v>
+        <v>141.3592207170749</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8216834577793</v>
+        <v>193.4139221136961</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.1867719137909</v>
+        <v>174.9547688453642</v>
       </c>
       <c r="AD2" t="n">
-        <v>119731.3267683894</v>
+        <v>141359.2207170749</v>
       </c>
       <c r="AE2" t="n">
-        <v>163821.6834577793</v>
+        <v>193413.9221136961</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319160670460775e-06</v>
+        <v>8.894376121638761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.938802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148186.7719137909</v>
+        <v>174954.7688453642</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.16957420207653</v>
+        <v>116.6268759501699</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2152100085195</v>
+        <v>159.5740368895895</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.7876531235361</v>
+        <v>144.3445147724584</v>
       </c>
       <c r="AD3" t="n">
-        <v>95169.57420207653</v>
+        <v>116626.8759501699</v>
       </c>
       <c r="AE3" t="n">
-        <v>130215.2100085195</v>
+        <v>159574.0368895895</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.100909208100735e-06</v>
+        <v>1.050421795360958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.3349609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>117787.6531235361</v>
+        <v>144344.5147724584</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.0298790597803</v>
+        <v>188.4672423713065</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.1694052507999</v>
+        <v>257.8691956002227</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.4886760479917</v>
+        <v>233.2585214939017</v>
       </c>
       <c r="AD2" t="n">
-        <v>166029.8790597803</v>
+        <v>188467.2423713065</v>
       </c>
       <c r="AE2" t="n">
-        <v>227169.4052507998</v>
+        <v>257869.1956002227</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.68580206896284e-06</v>
+        <v>7.302252498205453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.443359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>205488.6760479917</v>
+        <v>233258.5214939017</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4642817479014</v>
+        <v>130.816304204856</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.4056153938103</v>
+        <v>178.9886386210355</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2419917492548</v>
+        <v>161.906214163226</v>
       </c>
       <c r="AD3" t="n">
-        <v>108464.2817479014</v>
+        <v>130816.304204856</v>
       </c>
       <c r="AE3" t="n">
-        <v>148405.6153938103</v>
+        <v>178988.6386210355</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802510541836158e-06</v>
+        <v>9.514657582155334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134241.9917492548</v>
+        <v>161906.214163226</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.0265230927505</v>
+        <v>112.287919930075</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.2289458710845</v>
+        <v>153.6372858416689</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.0365692827293</v>
+        <v>138.974358912267</v>
       </c>
       <c r="AD4" t="n">
-        <v>101026.5230927505</v>
+        <v>112287.919930075</v>
       </c>
       <c r="AE4" t="n">
-        <v>138228.9458710845</v>
+        <v>153637.2858416689</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.02428252545598e-06</v>
+        <v>9.954028712541488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.260091145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>125036.5692827293</v>
+        <v>138974.358912267</v>
       </c>
     </row>
   </sheetData>
